--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\.eps-oregon-1.4.3.2 - WIP\InputData\land\RPEpUACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\RPEpUACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98BC2FE-B38B-42E1-A2B9-6363061CFA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6480" windowWidth="15990" windowHeight="24990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="383" yWindow="83" windowWidth="19140" windowHeight="9263"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="RPEpUACE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -38,6 +29,12 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>http://www.epa.gov/climatechange/Downloads/ghgemissions/US-GHG-Inventory-2015-Main-Text.pdf</t>
+  </si>
+  <si>
+    <t>Page 6-4, Table 6-3</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -107,31 +104,16 @@
     <t>F gases</t>
   </si>
   <si>
+    <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2013</t>
+  </si>
+  <si>
     <t>Rebound Emis Factor (dimensionless)</t>
-  </si>
-  <si>
-    <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2014</t>
-  </si>
-  <si>
-    <t>https://19january2017snapshot.epa.gov/sites/production/files/2016-04/documents/us-ghg-inventory-2016-main-text.pdf</t>
-  </si>
-  <si>
-    <t>Page 6-5, Table 6-5</t>
-  </si>
-  <si>
-    <t>Additional Notes for Oregon EPS</t>
-  </si>
-  <si>
-    <t>Data here is the updated version of the U.S. data (from 2015 to 2016).</t>
-  </si>
-  <si>
-    <t>California model uses same data as U.S. model but omits CH4 emissions. Here we've stuck with the U.S. data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,72 +184,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4502D284-087B-43E4-B0AB-494472550F28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="66675" y="3086100"/>
-          <a:ext cx="6600825" cy="7362825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,23 +262,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -398,23 +297,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -590,96 +472,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{89C699FD-4D89-4439-A0F4-4F6DBFB65F70}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -687,276 +552,273 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>2009</v>
+      </c>
+      <c r="C3">
+        <v>2010</v>
+      </c>
+      <c r="D3">
+        <v>2011</v>
+      </c>
+      <c r="E3">
+        <v>2012</v>
+      </c>
+      <c r="F3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-862631</v>
+      </c>
+      <c r="C4">
+        <v>-862025</v>
+      </c>
+      <c r="D4">
+        <v>-872103</v>
+      </c>
+      <c r="E4">
+        <v>-869580</v>
+      </c>
+      <c r="F4">
+        <v>-871026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2010</v>
-      </c>
-      <c r="C3">
-        <v>2011</v>
-      </c>
-      <c r="D3">
-        <v>2012</v>
-      </c>
-      <c r="E3">
-        <v>2013</v>
-      </c>
-      <c r="F3">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>-784268</v>
-      </c>
-      <c r="C4">
-        <v>-784268</v>
-      </c>
-      <c r="D4">
-        <v>-782024</v>
-      </c>
-      <c r="E4">
-        <v>-783680</v>
-      </c>
-      <c r="F4">
-        <v>-787045</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
       <c r="B5">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="C5">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="D5">
-        <v>443</v>
+        <v>584</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>627</v>
       </c>
       <c r="F5">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
         <f>B5/B4</f>
-        <v>-1.6703473812523269E-4</v>
+        <v>-2.7126314727850032E-4</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:F8" si="0">C5/C4</f>
-        <v>-3.3789469926096693E-4</v>
+        <v>-2.2041124097328964E-4</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>-5.6647877814491627E-4</v>
+        <v>-6.6964567258683894E-4</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>-3.7515312372396898E-4</v>
+        <v>-7.2103774235837996E-4</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>-3.7354916173789303E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-2.6750062569888842E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <f>B6/B4</f>
-        <v>-2.1676263726175237E-5</v>
+        <v>-2.5503372821055586E-5</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:F9" si="1">C6/C4</f>
-        <v>-3.1876858420845933E-5</v>
+        <v>-2.3201183260346277E-5</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>-4.3476926539338947E-5</v>
+        <v>-4.8159449055902798E-5</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>-3.3176806859942834E-5</v>
+        <v>-5.1749120264955494E-5</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>-3.3034959881582377E-5</v>
+        <v>-2.6405641163409588E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <f>-AVERAGE(Data!B8:F8)</f>
-        <v>3.6402210019859555E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.2997168577917945E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3">
         <f>-AVERAGE(Data!B9:F9)</f>
-        <v>3.2648363085577063E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.5003753313133949E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0</v>

--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\RPEpUACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\.eps-oregon-1.4.3.2 - WIP\InputData\land\RPEpUACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98BC2FE-B38B-42E1-A2B9-6363061CFA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="383" yWindow="83" windowWidth="19140" windowHeight="9263"/>
+    <workbookView xWindow="28680" yWindow="-6480" windowWidth="15990" windowHeight="24990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="RPEpUACE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -29,12 +38,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>http://www.epa.gov/climatechange/Downloads/ghgemissions/US-GHG-Inventory-2015-Main-Text.pdf</t>
-  </si>
-  <si>
-    <t>Page 6-4, Table 6-3</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -104,16 +107,31 @@
     <t>F gases</t>
   </si>
   <si>
-    <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2013</t>
-  </si>
-  <si>
     <t>Rebound Emis Factor (dimensionless)</t>
+  </si>
+  <si>
+    <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2014</t>
+  </si>
+  <si>
+    <t>https://19january2017snapshot.epa.gov/sites/production/files/2016-04/documents/us-ghg-inventory-2016-main-text.pdf</t>
+  </si>
+  <si>
+    <t>Page 6-5, Table 6-5</t>
+  </si>
+  <si>
+    <t>Additional Notes for Oregon EPS</t>
+  </si>
+  <si>
+    <t>Data here is the updated version of the U.S. data (from 2015 to 2016).</t>
+  </si>
+  <si>
+    <t>California model uses same data as U.S. model but omits CH4 emissions. Here we've stuck with the U.S. data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,6 +202,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4502D284-087B-43E4-B0AB-494472550F28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="66675" y="3086100"/>
+          <a:ext cx="6600825" cy="7362825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -262,6 +346,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,6 +398,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,79 +590,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>9</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{89C699FD-4D89-4439-A0F4-4F6DBFB65F70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -552,273 +687,276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" customWidth="1"/>
-    <col min="2" max="2" width="8.86328125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2010</v>
+      </c>
+      <c r="C3">
+        <v>2011</v>
+      </c>
+      <c r="D3">
+        <v>2012</v>
+      </c>
+      <c r="E3">
+        <v>2013</v>
+      </c>
+      <c r="F3">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>-784268</v>
+      </c>
+      <c r="C4">
+        <v>-784268</v>
+      </c>
+      <c r="D4">
+        <v>-782024</v>
+      </c>
+      <c r="E4">
+        <v>-783680</v>
+      </c>
+      <c r="F4">
+        <v>-787045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B3">
-        <v>2009</v>
-      </c>
-      <c r="C3">
-        <v>2010</v>
-      </c>
-      <c r="D3">
-        <v>2011</v>
-      </c>
-      <c r="E3">
-        <v>2012</v>
-      </c>
-      <c r="F3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>131</v>
+      </c>
+      <c r="C5">
+        <v>265</v>
+      </c>
+      <c r="D5">
+        <v>443</v>
+      </c>
+      <c r="E5">
+        <v>294</v>
+      </c>
+      <c r="F5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>-862631</v>
-      </c>
-      <c r="C4">
-        <v>-862025</v>
-      </c>
-      <c r="D4">
-        <v>-872103</v>
-      </c>
-      <c r="E4">
-        <v>-869580</v>
-      </c>
-      <c r="F4">
-        <v>-871026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>234</v>
-      </c>
-      <c r="C5">
-        <v>190</v>
-      </c>
-      <c r="D5">
-        <v>584</v>
-      </c>
-      <c r="E5">
-        <v>627</v>
-      </c>
-      <c r="F5">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
-      </c>
-      <c r="B6">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>42</v>
-      </c>
-      <c r="E6">
-        <v>45</v>
-      </c>
-      <c r="F6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>16</v>
       </c>
       <c r="B8" s="3">
         <f>B5/B4</f>
-        <v>-2.7126314727850032E-4</v>
+        <v>-1.6703473812523269E-4</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:F8" si="0">C5/C4</f>
-        <v>-2.2041124097328964E-4</v>
+        <v>-3.3789469926096693E-4</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>-6.6964567258683894E-4</v>
+        <v>-5.6647877814491627E-4</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>-7.2103774235837996E-4</v>
+        <v>-3.7515312372396898E-4</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>-2.6750062569888842E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>-3.7354916173789303E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3">
         <f>B6/B4</f>
-        <v>-2.5503372821055586E-5</v>
+        <v>-2.1676263726175237E-5</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:F9" si="1">C6/C4</f>
-        <v>-2.3201183260346277E-5</v>
+        <v>-3.1876858420845933E-5</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>-4.8159449055902798E-5</v>
+        <v>-4.3476926539338947E-5</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>-5.1749120264955494E-5</v>
+        <v>-3.3176806859942834E-5</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>-2.6405641163409588E-5</v>
+        <v>-3.3034959881582377E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <f>-AVERAGE(Data!B8:F8)</f>
-        <v>4.2997168577917945E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3.6402210019859555E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
         <f>-AVERAGE(Data!B9:F9)</f>
-        <v>3.5003753313133949E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3.2648363085577063E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0</v>

--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\RPEpUACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/land/rpepuace/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0743C7B-E535-C943-97E4-AD7317A79A19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="383" yWindow="83" windowWidth="19140" windowHeight="9263"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="RPEpUACE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -168,6 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -262,6 +275,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,6 +327,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,19 +519,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="5">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -492,59 +542,59 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -552,28 +602,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" customWidth="1"/>
-    <col min="2" max="2" width="8.86328125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2009</v>
       </c>
@@ -590,7 +640,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -610,7 +660,7 @@
         <v>-871026</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -630,7 +680,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -650,7 +700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -675,7 +725,7 @@
         <v>-2.6750062569888842E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -706,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -716,17 +766,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -734,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -742,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -750,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -758,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -766,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -774,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -782,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -790,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -798,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -807,7 +857,7 @@
         <v>4.2997168577917945E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -816,7 +866,7 @@
         <v>3.5003753313133949E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>

--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/land/rpepuace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/land/rpepuace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0743C7B-E535-C943-97E4-AD7317A79A19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F92AE-FC21-0D4A-936B-362E8F86FCEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\.eps-oregon-1.4.3.2 - WIP\InputData\land\RPEpUACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Oregon\Oregon_EPS\InputData\land\RPEpUACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98BC2FE-B38B-42E1-A2B9-6363061CFA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD612C4F-F994-4B92-B6E3-36DDC749A9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6480" windowWidth="15990" windowHeight="24990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="1305" windowWidth="19290" windowHeight="16095" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="RPEpUACE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -59,9 +62,6 @@
     <t>U.S. EPA</t>
   </si>
   <si>
-    <t>Excerpt from Table 6-3:</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>California model uses same data as U.S. model but omits CH4 emissions. Here we've stuck with the U.S. data.</t>
+  </si>
+  <si>
+    <t>Excerpt from Table 6-2:</t>
   </si>
 </sst>
 </file>
@@ -202,72 +205,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4502D284-087B-43E4-B0AB-494472550F28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="66675" y="3086100"/>
-          <a:ext cx="6600825" cy="7362825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -619,17 +556,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,17 +601,17 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +628,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,144 +639,143 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="C3">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="D3">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E3">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="F3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-784268</v>
+        <v>-791695</v>
       </c>
       <c r="C4">
-        <v>-784268</v>
+        <v>-855998</v>
       </c>
       <c r="D4">
-        <v>-782024</v>
+        <v>-792046</v>
       </c>
       <c r="E4">
-        <v>-783680</v>
+        <v>-824885</v>
       </c>
       <c r="F4">
-        <v>-787045</v>
+        <v>-812695</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>131</v>
+        <v>663</v>
       </c>
       <c r="C5">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="D5">
-        <v>443</v>
+        <v>614</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>552</v>
       </c>
       <c r="F5">
-        <v>294</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <f>B5/B4</f>
-        <v>-1.6703473812523269E-4</v>
+        <v>-8.3744371254081433E-4</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:F8" si="0">C5/C4</f>
-        <v>-3.3789469926096693E-4</v>
+        <v>-3.5981392479888971E-4</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>-5.6647877814491627E-4</v>
+        <v>-7.7520750057446164E-4</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>-3.7515312372396898E-4</v>
+        <v>-6.6918418931123734E-4</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>-3.7354916173789303E-4</v>
+        <v>-6.7922160220008736E-4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <f>B6/B4</f>
-        <v>-2.1676263726175237E-5</v>
+        <v>-4.7998282166743506E-5</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:F9" si="1">C6/C4</f>
-        <v>-3.1876858420845933E-5</v>
+        <v>-2.1028086514220829E-5</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>-4.3476926539338947E-5</v>
+        <v>-4.5451905571141073E-5</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>-3.3176806859942834E-5</v>
+        <v>-3.8793286336883321E-5</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>-3.3034959881582377E-5</v>
+        <v>-3.9375165344932599E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -850,7 +786,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -861,12 +797,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -874,7 +810,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -882,7 +818,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -890,7 +826,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -898,7 +834,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -906,7 +842,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -914,7 +850,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -922,7 +858,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -930,7 +866,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -938,25 +874,25 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <f>-AVERAGE(Data!B8:F8)</f>
-        <v>3.6402210019859555E-4</v>
+        <v>6.6417418588509813E-4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <f>-AVERAGE(Data!B9:F9)</f>
-        <v>3.2648363085577063E-5</v>
+        <v>3.8529345186784264E-5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>0</v>

--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/land/rpepuace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/OR/land/RPEpUACE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F92AE-FC21-0D4A-936B-362E8F86FCEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{761616A3-23E3-4C47-A991-77AC13146E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>http://www.epa.gov/climatechange/Downloads/ghgemissions/US-GHG-Inventory-2015-Main-Text.pdf</t>
-  </si>
-  <si>
-    <t>Page 6-4, Table 6-3</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -65,12 +59,6 @@
     <t>and to the effects of policy levers in the model.</t>
   </si>
   <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>Excerpt from Table 6-3:</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -116,10 +104,25 @@
     <t>F gases</t>
   </si>
   <si>
-    <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2013</t>
-  </si>
-  <si>
     <t>Rebound Emis Factor (dimensionless)</t>
+  </si>
+  <si>
+    <t>Excerpt from Table 6-2:</t>
+  </si>
+  <si>
+    <t>US EPA</t>
+  </si>
+  <si>
+    <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
+  </si>
+  <si>
+    <t>Table 6-3</t>
+  </si>
+  <si>
+    <t>Oregon</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -530,8 +535,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
       <c r="C1" s="5">
-        <v>44307</v>
+        <v>44515</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -539,57 +547,57 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -615,139 +625,139 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="C3">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D3">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E3">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="F3">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-862631</v>
+        <v>-791695</v>
       </c>
       <c r="C4">
-        <v>-862025</v>
+        <v>-855998</v>
       </c>
       <c r="D4">
-        <v>-872103</v>
+        <v>-792046</v>
       </c>
       <c r="E4">
-        <v>-869580</v>
+        <v>-824885</v>
       </c>
       <c r="F4">
-        <v>-871026</v>
+        <v>-812695</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>234</v>
+        <v>663</v>
       </c>
       <c r="C5">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="D5">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E5">
-        <v>627</v>
+        <v>552</v>
       </c>
       <c r="F5">
-        <v>233</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <f>B5/B4</f>
-        <v>-2.7126314727850032E-4</v>
+        <v>-8.3744371254081433E-4</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:F8" si="0">C5/C4</f>
-        <v>-2.2041124097328964E-4</v>
+        <v>-3.5981392479888971E-4</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>-6.6964567258683894E-4</v>
+        <v>-7.7520750057446164E-4</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>-7.2103774235837996E-4</v>
+        <v>-6.6918418931123734E-4</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>-2.6750062569888842E-4</v>
+        <v>-6.7922160220008736E-4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <f>B6/B4</f>
-        <v>-2.5503372821055586E-5</v>
+        <v>-4.7998282166743506E-5</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:F9" si="1">C6/C4</f>
-        <v>-2.3201183260346277E-5</v>
+        <v>-2.1028086514220829E-5</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>-4.8159449055902798E-5</v>
+        <v>-4.5451905571141073E-5</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>-5.1749120264955494E-5</v>
+        <v>-3.8793286336883321E-5</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>-2.6405641163409588E-5</v>
+        <v>-3.9375165344932599E-5</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +773,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -773,12 +783,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -786,7 +796,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -794,7 +804,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -802,7 +812,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -810,7 +820,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -818,7 +828,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -826,7 +836,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -834,7 +844,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -842,7 +852,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -850,25 +860,25 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <f>-AVERAGE(Data!B8:F8)</f>
-        <v>4.2997168577917945E-4</v>
+        <v>6.6417418588509813E-4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <f>-AVERAGE(Data!B9:F9)</f>
-        <v>3.5003753313133949E-5</v>
+        <v>3.8529345186784264E-5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>

--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Oregon\Oregon_EPS\InputData\land\RPEpUACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/OR/land/RPEpUACE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD612C4F-F994-4B92-B6E3-36DDC749A9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{761616A3-23E3-4C47-A991-77AC13146E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="1305" windowWidth="19290" windowHeight="16095" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -59,9 +59,6 @@
     <t>and to the effects of policy levers in the model.</t>
   </si>
   <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -110,25 +107,22 @@
     <t>Rebound Emis Factor (dimensionless)</t>
   </si>
   <si>
-    <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2014</t>
-  </si>
-  <si>
-    <t>https://19january2017snapshot.epa.gov/sites/production/files/2016-04/documents/us-ghg-inventory-2016-main-text.pdf</t>
-  </si>
-  <si>
-    <t>Page 6-5, Table 6-5</t>
-  </si>
-  <si>
-    <t>Additional Notes for Oregon EPS</t>
-  </si>
-  <si>
-    <t>Data here is the updated version of the U.S. data (from 2015 to 2016).</t>
-  </si>
-  <si>
-    <t>California model uses same data as U.S. model but omits CH4 emissions. Here we've stuck with the U.S. data.</t>
-  </si>
-  <si>
     <t>Excerpt from Table 6-2:</t>
+  </si>
+  <si>
+    <t>US EPA</t>
+  </si>
+  <si>
+    <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
+  </si>
+  <si>
+    <t>Table 6-3</t>
+  </si>
+  <si>
+    <t>Oregon</t>
   </si>
 </sst>
 </file>
@@ -181,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -189,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -528,95 +523,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5">
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{89C699FD-4D89-4439-A0F4-4F6DBFB65F70}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -628,26 +614,26 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2015</v>
       </c>
@@ -664,9 +650,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>-791695</v>
@@ -684,9 +670,9 @@
         <v>-812695</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>663</v>
@@ -704,9 +690,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>38</v>
@@ -724,9 +710,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <f>B5/B4</f>
@@ -749,9 +735,9 @@
         <v>-6.7922160220008736E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <f>B6/B4</f>
@@ -786,113 +772,113 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
       </c>
       <c r="B11" s="3">
         <f>-AVERAGE(Data!B8:F8)</f>
         <v>6.6417418588509813E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <f>-AVERAGE(Data!B9:F9)</f>
         <v>3.8529345186784264E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
